--- a/Ashok/FileHandling/File_excel/Book.xlsx
+++ b/Ashok/FileHandling/File_excel/Book.xlsx
@@ -1,78 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonAutomation\GTM_PS_Batch03\Ashok\FileHandling\File_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>Pusarla</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Mounica</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,13 +41,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,122 +410,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>America</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ashok</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kumar</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pusarla</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mounica</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>